--- a/user-data/maternal-mortality/maternal-mortality.xlsx
+++ b/user-data/maternal-mortality/maternal-mortality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1745,42 +1742,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
@@ -1796,11 +1793,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/maternal-mortality/maternal-mortality.xlsx
+++ b/user-data/maternal-mortality/maternal-mortality.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1367,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1767,7 +1771,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
@@ -1777,22 +1781,32 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -56854,4 +56868,6196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="n">
+        <v> 730</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v> 500</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2" t="n">
+        <v> 400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>  28</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="n">
+        <v>  24</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>  21</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3" t="n">
+        <v>  21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="n">
+        <v> 100</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>  92</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" t="n">
+        <v>  89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v> 750</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v> 530</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7" t="n">
+        <v> 460</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>  63</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="n">
+        <v>  70</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>  76</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" t="n">
+        <v>  69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>  43</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>  37</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>  31</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10" t="n">
+        <v>  29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>   9</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" t="n">
+        <v>   6</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>   5</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="n">
+        <v>   5</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" t="n">
+        <v>   3</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>  57</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="n">
+        <v>  36</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" t="n">
+        <v>  27</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="n">
+        <v>  26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>  44</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15" t="n">
+        <v>  40</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" t="n">
+        <v>  38</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15" t="n">
+        <v>  37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>  27</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="n">
+        <v>  16</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" t="n">
+        <v>  24</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16" t="n">
+        <v>  22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v> 340</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="n">
+        <v> 260</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" t="n">
+        <v> 200</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="n">
+        <v> 170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>  42</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="n">
+        <v>  33</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="n">
+        <v>  83</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" t="n">
+        <v>  52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>  32</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" t="n">
+        <v>  21</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="n">
+        <v>   2</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19" t="n">
+        <v>   1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>   9</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="n">
+        <v>   7</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v> 110</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" t="n">
+        <v>  79</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="n">
+        <v>  60</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" t="n">
+        <v>  45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v> 490</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="n">
+        <v> 420</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="n">
+        <v> 370</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22" t="n">
+        <v> 340</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v> 390</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="n">
+        <v> 240</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" t="n">
+        <v> 140</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24" t="n">
+        <v> 120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v> 330</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="n">
+        <v> 270</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v> 230</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25" t="n">
+        <v> 200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" t="n">
+        <v>  10</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26" t="n">
+        <v>   9</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" t="n">
+        <v>   8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v> 390</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" t="n">
+        <v> 340</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27" t="n">
+        <v> 210</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27" t="n">
+        <v> 170</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>  85</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" t="n">
+        <v>  73</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" t="n">
+        <v>  68</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="n">
+        <v>  69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>  24</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" t="n">
+        <v>  25</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" t="n">
+        <v>  27</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29" t="n">
+        <v>  27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>  29</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" t="n">
+        <v>  14</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30" t="n">
+        <v>   8</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30" t="n">
+        <v>   5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v> 580</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31" t="n">
+        <v> 500</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="n">
+        <v> 440</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31" t="n">
+        <v> 400</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="n">
+        <v> 910</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" t="n">
+        <v> 820</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32" t="n">
+        <v> 740</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v> 670</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" t="n">
+        <v> 750</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="n">
+        <v> 750</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33" t="n">
+        <v> 720</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v> 540</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" t="n">
+        <v> 320</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34" t="n">
+        <v> 200</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34" t="n">
+        <v> 170</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v> 740</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35" t="n">
+        <v> 690</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" t="n">
+        <v> 640</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35" t="n">
+        <v> 590</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" t="n">
+        <v>  11</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36" t="n">
+        <v>  13</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36" t="n">
+        <v>  11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>  84</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37" t="n">
+        <v>  63</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37" t="n">
+        <v>  58</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37" t="n">
+        <v>  53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38" t="n">
+        <v> 960</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38" t="n">
+        <v> 880</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40" t="n">
+        <v> 980</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>  29</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" t="n">
+        <v>  26</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>  24</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" t="n">
+        <v>  22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>  63</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="n">
+        <v>  50</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42" t="n">
+        <v>  36</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42" t="n">
+        <v>  32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v> 130</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43" t="n">
+        <v>  97</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43" t="n">
+        <v>  85</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43" t="n">
+        <v>  83</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v> 480</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44" t="n">
+        <v> 430</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44" t="n">
+        <v> 380</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44" t="n">
+        <v> 350</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v> 610</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v> 530</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v> 450</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45" t="n">
+        <v> 410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>  44</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" t="n">
+        <v>  46</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" t="n">
+        <v>  33</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46" t="n">
+        <v>  38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47" t="n">
+        <v>  14</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47" t="n">
+        <v>  15</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47" t="n">
+        <v>  13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>  63</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48" t="n">
+        <v>  67</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48" t="n">
+        <v>  80</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48" t="n">
+        <v>  80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>  16</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50" t="n">
+        <v>  13</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50" t="n">
+        <v>  10</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50" t="n">
+        <v>  10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51" t="n">
+        <v>   7</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" t="n">
+        <v>   5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>   9</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" t="n">
+        <v>   8</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52" t="n">
+        <v>   9</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52" t="n">
+        <v>   5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v> 360</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53" t="n">
+        <v> 310</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53" t="n">
+        <v> 250</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53" t="n">
+        <v> 230</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55" t="n">
+        <v> 130</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55" t="n">
+        <v> 130</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55" t="n">
+        <v> 100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56" t="n">
+        <v> 930</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56" t="n">
+        <v> 810</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56" t="n">
+        <v> 730</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57" t="n">
+        <v>  98</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57" t="n">
+        <v>  90</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57" t="n">
+        <v>  87</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>  75</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58" t="n">
+        <v>  62</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58" t="n">
+        <v>  50</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58" t="n">
+        <v>  45</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>  80</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59" t="n">
+        <v>  72</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59" t="n">
+        <v>  71</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59" t="n">
+        <v>  69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="n">
+        <v> 790</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60" t="n">
+        <v> 480</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60" t="n">
+        <v> 330</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60" t="n">
+        <v> 290</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v> 670</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61" t="n">
+        <v> 530</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61" t="n">
+        <v> 450</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" t="n">
+        <v> 380</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>  26</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62" t="n">
+        <v>  24</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62" t="n">
+        <v>   6</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62" t="n">
+        <v>  11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v> 990</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63" t="n">
+        <v> 740</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63" t="n">
+        <v> 500</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63" t="n">
+        <v> 420</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>  72</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65" t="n">
+        <v>  69</v>
+      </c>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65" t="n">
+        <v>  62</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65" t="n">
+        <v>  59</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66" t="n">
+        <v>   9</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66" t="n">
+        <v>   6</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>  10</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67" t="n">
+        <v>   9</v>
+      </c>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67" t="n">
+        <v>  12</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67" t="n">
+        <v>  12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="n">
+        <v> 330</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69" t="n">
+        <v> 300</v>
+      </c>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69" t="n">
+        <v> 260</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69" t="n">
+        <v> 240</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="n">
+        <v> 580</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70" t="n">
+        <v> 510</v>
+      </c>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70" t="n">
+        <v> 460</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70" t="n">
+        <v> 430</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="n">
+        <v>  60</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71" t="n">
+        <v>  48</v>
+      </c>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71" t="n">
+        <v>  42</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71" t="n">
+        <v>  41</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72" t="n">
+        <v>   7</v>
+      </c>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72" t="n">
+        <v>   7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="n">
+        <v> 570</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73" t="n">
+        <v> 470</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73" t="n">
+        <v> 410</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73" t="n">
+        <v> 380</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>   5</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74" t="n">
+        <v>   3</v>
+      </c>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74" t="n">
+        <v>   5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="n">
+        <v>  29</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76" t="n">
+        <v>  25</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76" t="n">
+        <v>  23</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76" t="n">
+        <v>  23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="n">
+        <v> 160</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78" t="n">
+        <v> 140</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78" t="n">
+        <v> 140</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78" t="n">
+        <v> 140</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="n">
+        <v> 950</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" t="n">
+        <v> 800</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79" t="n">
+        <v> 690</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79" t="n">
+        <v> 650</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="n">
+        <v> 840</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80" t="n">
+        <v> 760</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80" t="n">
+        <v> 600</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80" t="n">
+        <v> 560</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="n">
+        <v> 240</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81" t="n">
+        <v> 240</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81" t="n">
+        <v> 230</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81" t="n">
+        <v> 250</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="n">
+        <v> 510</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82" t="n">
+        <v> 470</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82" t="n">
+        <v> 420</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82" t="n">
+        <v> 380</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="n">
+        <v> 150</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83" t="n">
+        <v> 130</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83" t="n">
+        <v> 120</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83" t="n">
+        <v> 120</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="n">
+        <v>  10</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85" t="n">
+        <v>  13</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85" t="n">
+        <v>  21</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85" t="n">
+        <v>  14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="n">
+        <v>   6</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86" t="n">
+        <v>   6</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="n">
+        <v> 370</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87" t="n">
+        <v> 280</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v> 220</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87" t="n">
+        <v> 190</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="n">
+        <v> 310</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88" t="n">
+        <v> 250</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88" t="n">
+        <v> 210</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88" t="n">
+        <v> 190</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="n">
+        <v>  44</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89" t="n">
+        <v>  31</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89" t="n">
+        <v>  25</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89" t="n">
+        <v>  23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>  71</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90" t="n">
+        <v>  77</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90" t="n">
+        <v>  73</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90" t="n">
+        <v>  67</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>   6</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91" t="n">
+        <v>   2</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91" t="n">
+        <v>  10</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91" t="n">
+        <v>   9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>   9</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92" t="n">
+        <v>   7</v>
+      </c>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92" t="n">
+        <v>   2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="n">
+        <v>   4</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93" t="n">
+        <v>   5</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93" t="n">
+        <v>   4</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="n">
+        <v>  88</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94" t="n">
+        <v>  85</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94" t="n">
+        <v>  82</v>
+      </c>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94" t="n">
+        <v>  80</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="n">
+        <v>  10</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95" t="n">
+        <v>   7</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95" t="n">
+        <v>   6</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>  65</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96" t="n">
+        <v>  58</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96" t="n">
+        <v>  53</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96" t="n">
+        <v>  50</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="n">
+        <v>  71</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97" t="n">
+        <v>  50</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97" t="n">
+        <v>  40</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97" t="n">
+        <v>  26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="n">
+        <v> 570</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98" t="n">
+        <v> 550</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98" t="n">
+        <v> 460</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98" t="n">
+        <v> 400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="n">
+        <v> 200</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99" t="n">
+        <v> 170</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99" t="n">
+        <v> 140</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99" t="n">
+        <v> 130</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="n">
+        <v>   8</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101" t="n">
+        <v>   6</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101" t="n">
+        <v>  13</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101" t="n">
+        <v>  14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v> 100</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102" t="n">
+        <v>  92</v>
+      </c>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102" t="n">
+        <v>  79</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102" t="n">
+        <v>  75</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="n">
+        <v> 600</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103" t="n">
+        <v> 410</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103" t="n">
+        <v> 270</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103" t="n">
+        <v> 220</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="n">
+        <v>  42</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104" t="n">
+        <v>  21</v>
+      </c>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104" t="n">
+        <v>  29</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104" t="n">
+        <v>  13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>  37</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105" t="n">
+        <v>  26</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105" t="n">
+        <v>  18</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105" t="n">
+        <v>  16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v> 680</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106" t="n">
+        <v> 670</v>
+      </c>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106" t="n">
+        <v> 540</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106" t="n">
+        <v> 490</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107" t="n">
+        <v> 880</v>
+      </c>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v> 680</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107" t="n">
+        <v> 640</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>  21</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108" t="n">
+        <v>  17</v>
+      </c>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108" t="n">
+        <v>  15</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108" t="n">
+        <v>  15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="n">
+        <v>  20</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110" t="n">
+        <v>  11</v>
+      </c>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110" t="n">
+        <v>   9</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110" t="n">
+        <v>  11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111" t="n">
+        <v>  17</v>
+      </c>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>  13</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111" t="n">
+        <v>  11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="n">
+        <v>  15</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113" t="n">
+        <v>  14</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113" t="n">
+        <v>   7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="n">
+        <v> 550</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114" t="n">
+        <v> 530</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114" t="n">
+        <v> 480</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114" t="n">
+        <v> 440</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="n">
+        <v> 750</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115" t="n">
+        <v> 570</v>
+      </c>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115" t="n">
+        <v> 540</v>
+      </c>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115" t="n">
+        <v> 510</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" t="n">
+        <v>  40</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116" t="n">
+        <v>  36</v>
+      </c>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116" t="n">
+        <v>  31</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116" t="n">
+        <v>  29</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="n">
+        <v> 110</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117" t="n">
+        <v>  57</v>
+      </c>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117" t="n">
+        <v>  38</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117" t="n">
+        <v>  31</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="n">
+        <v> 860</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118" t="n">
+        <v> 710</v>
+      </c>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118" t="n">
+        <v> 600</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118" t="n">
+        <v> 550</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119" t="n">
+        <v>   9</v>
+      </c>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119" t="n">
+        <v>   8</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119" t="n">
+        <v>   9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="n">
+        <v> 480</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121" t="n">
+        <v> 400</v>
+      </c>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121" t="n">
+        <v> 360</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121" t="n">
+        <v> 320</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="n">
+        <v>  28</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122" t="n">
+        <v>  35</v>
+      </c>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122" t="n">
+        <v>  72</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122" t="n">
+        <v>  73</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="n">
+        <v>  67</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123" t="n">
+        <v>  50</v>
+      </c>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123" t="n">
+        <v>  47</v>
+      </c>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123" t="n">
+        <v>  49</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="n">
+        <v> 130</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124" t="n">
+        <v> 120</v>
+      </c>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124" t="n">
+        <v> 100</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124" t="n">
+        <v>  96</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="n">
+        <v>  39</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125" t="n">
+        <v>  25</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125" t="n">
+        <v>  41</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125" t="n">
+        <v>  21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127" t="n">
+        <v>  89</v>
+      </c>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127" t="n">
+        <v>  74</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127" t="n">
+        <v>  68</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" t="n">
+        <v>  10</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128" t="n">
+        <v>   8</v>
+      </c>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128" t="n">
+        <v>   7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="n">
+        <v> 200</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129" t="n">
+        <v> 160</v>
+      </c>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129" t="n">
+        <v> 130</v>
+      </c>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129" t="n">
+        <v> 120</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="n">
+        <v> 870</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130" t="n">
+        <v> 680</v>
+      </c>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130" t="n">
+        <v> 540</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130" t="n">
+        <v> 480</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="n">
+        <v> 360</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131" t="n">
+        <v> 260</v>
+      </c>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131" t="n">
+        <v> 220</v>
+      </c>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131" t="n">
+        <v> 200</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="n">
+        <v> 270</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132" t="n">
+        <v> 250</v>
+      </c>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132" t="n">
+        <v> 160</v>
+      </c>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132" t="n">
+        <v> 130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="n">
+        <v> 430</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133" t="n">
+        <v> 310</v>
+      </c>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v> 220</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133" t="n">
+        <v> 190</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>  15</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134" t="n">
+        <v>  10</v>
+      </c>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="n">
+        <v>  12</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136" t="n">
+        <v>  12</v>
+      </c>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136" t="n">
+        <v>  12</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136" t="n">
+        <v>   8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="n">
+        <v> 140</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137" t="n">
+        <v> 120</v>
+      </c>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137" t="n">
+        <v> 110</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137" t="n">
+        <v> 100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" t="n">
+        <v> 850</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138" t="n">
+        <v> 760</v>
+      </c>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138" t="n">
+        <v> 690</v>
+      </c>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138" t="n">
+        <v> 630</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v> 950</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139" t="n">
+        <v> 740</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v> 610</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139" t="n">
+        <v> 560</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140" t="n">
+        <v> 110</v>
+      </c>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140" t="n">
+        <v>  98</v>
+      </c>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140" t="n">
+        <v>  87</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="n">
+        <v>   8</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142" t="n">
+        <v>   9</v>
+      </c>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="n">
+        <v>  22</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143" t="n">
+        <v>  16</v>
+      </c>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143" t="n">
+        <v>  12</v>
+      </c>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143" t="n">
+        <v>  11</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" t="n">
+        <v> 280</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144" t="n">
+        <v> 230</v>
+      </c>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144" t="n">
+        <v> 190</v>
+      </c>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144" t="n">
+        <v> 170</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="n">
+        <v>  59</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146" t="n">
+        <v>  59</v>
+      </c>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146" t="n">
+        <v>  53</v>
+      </c>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146" t="n">
+        <v>  47</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="n">
+        <v>  79</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147" t="n">
+        <v>  83</v>
+      </c>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147" t="n">
+        <v>  82</v>
+      </c>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147" t="n">
+        <v>  85</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" t="n">
+        <v> 340</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148" t="n">
+        <v> 280</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148" t="n">
+        <v> 240</v>
+      </c>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148" t="n">
+        <v> 220</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149" t="n">
+        <v> 130</v>
+      </c>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149" t="n">
+        <v> 110</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149" t="n">
+        <v> 110</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="n">
+        <v> 160</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150" t="n">
+        <v> 120</v>
+      </c>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150" t="n">
+        <v> 100</v>
+      </c>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150" t="n">
+        <v>  89</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151" t="n">
+        <v> 130</v>
+      </c>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151" t="n">
+        <v> 120</v>
+      </c>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151" t="n">
+        <v> 120</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="n">
+        <v>   8</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152" t="n">
+        <v>   5</v>
+      </c>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152" t="n">
+        <v>   4</v>
+      </c>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152" t="n">
+        <v>   3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153" t="n">
+        <v>  11</v>
+      </c>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153" t="n">
+        <v>  11</v>
+      </c>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153" t="n">
+        <v>   8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" t="n">
+        <v>  24</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154" t="n">
+        <v>  21</v>
+      </c>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154" t="n">
+        <v>  20</v>
+      </c>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154" t="n">
+        <v>  20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" t="n">
+        <v>   9</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155" t="n">
+        <v>   8</v>
+      </c>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="n">
+        <v>  53</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156" t="n">
+        <v>  30</v>
+      </c>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156" t="n">
+        <v>  30</v>
+      </c>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156" t="n">
+        <v>  33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" t="n">
+        <v>  57</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157" t="n">
+        <v>  37</v>
+      </c>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157" t="n">
+        <v>  31</v>
+      </c>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157" t="n">
+        <v>  24</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158" t="n">
+        <v> 610</v>
+      </c>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158" t="n">
+        <v> 390</v>
+      </c>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158" t="n">
+        <v> 320</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" t="n">
+        <v>  44</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160" t="n">
+        <v>  39</v>
+      </c>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160" t="n">
+        <v>  35</v>
+      </c>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160" t="n">
+        <v>  34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" t="n">
+        <v>  75</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162" t="n">
+        <v>  55</v>
+      </c>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162" t="n">
+        <v>  47</v>
+      </c>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162" t="n">
+        <v>  45</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="n">
+        <v>  89</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163" t="n">
+        <v>  73</v>
+      </c>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163" t="n">
+        <v>  62</v>
+      </c>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163" t="n">
+        <v>  58</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" t="n">
+        <v> 300</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165" t="n">
+        <v> 260</v>
+      </c>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165" t="n">
+        <v> 230</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165" t="n">
+        <v> 210</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" t="n">
+        <v>  24</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166" t="n">
+        <v>  19</v>
+      </c>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166" t="n">
+        <v>  16</v>
+      </c>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166" t="n">
+        <v>  16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" t="n">
+        <v> 480</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167" t="n">
+        <v> 420</v>
+      </c>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167" t="n">
+        <v> 360</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167" t="n">
+        <v> 320</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168" t="n">
+        <v>   8</v>
+      </c>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168" t="n">
+        <v>  14</v>
+      </c>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168" t="n">
+        <v>  16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" t="n">
+        <v>  19</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171" t="n">
+        <v>  10</v>
+      </c>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171" t="n">
+        <v>   4</v>
+      </c>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" t="n">
+        <v>  12</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173" t="n">
+        <v>   6</v>
+      </c>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173" t="n">
+        <v>   7</v>
+      </c>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173" t="n">
+        <v>   7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" t="n">
+        <v>  12</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174" t="n">
+        <v>  15</v>
+      </c>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174" t="n">
+        <v>   8</v>
+      </c>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174" t="n">
+        <v>   7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175" t="n">
+        <v> 210</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175" t="n">
+        <v> 170</v>
+      </c>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175" t="n">
+        <v> 140</v>
+      </c>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175" t="n">
+        <v> 130</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176" t="n">
+        <v> 930</v>
+      </c>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176" t="n">
+        <v> 850</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="n">
+        <v> 150</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177" t="n">
+        <v> 160</v>
+      </c>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177" t="n">
+        <v> 140</v>
+      </c>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177" t="n">
+        <v> 140</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" t="n">
+        <v>  19</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178" t="n">
+        <v>  18</v>
+      </c>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178" t="n">
+        <v>  21</v>
+      </c>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178" t="n">
+        <v>  27</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179" t="n">
+        <v> 830</v>
+      </c>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179" t="n">
+        <v> 730</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" t="n">
+        <v>   5</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180" t="n">
+        <v>   6</v>
+      </c>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180" t="n">
+        <v>   6</v>
+      </c>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181" t="n">
+        <v>  55</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181" t="n">
+        <v>  41</v>
+      </c>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181" t="n">
+        <v>  32</v>
+      </c>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181" t="n">
+        <v>  29</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182" t="n">
+        <v> 540</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182" t="n">
+        <v> 460</v>
+      </c>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182" t="n">
+        <v> 390</v>
+      </c>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182" t="n">
+        <v> 360</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183" t="n">
+        <v> 110</v>
+      </c>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183" t="n">
+        <v> 150</v>
+      </c>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183" t="n">
+        <v> 130</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184" t="n">
+        <v> 520</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184" t="n">
+        <v> 480</v>
+      </c>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184" t="n">
+        <v> 350</v>
+      </c>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184" t="n">
+        <v> 310</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" t="n">
+        <v>   5</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185" t="n">
+        <v>   4</v>
+      </c>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185" t="n">
+        <v>   5</v>
+      </c>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185" t="n">
+        <v>   4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186" t="n">
+        <v>   8</v>
+      </c>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186" t="n">
+        <v>   8</v>
+      </c>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186" t="n">
+        <v>   6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="n">
+        <v>  75</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187" t="n">
+        <v>  58</v>
+      </c>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187" t="n">
+        <v>  50</v>
+      </c>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187" t="n">
+        <v>  49</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" t="n">
+        <v>  89</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188" t="n">
+        <v>  59</v>
+      </c>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188" t="n">
+        <v>  48</v>
+      </c>
+      <c r="N188"/>
+      <c r="O188"/>
+      <c r="P188" t="n">
+        <v>  44</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" t="n">
+        <v> 770</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189" t="n">
+        <v> 610</v>
+      </c>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189" t="n">
+        <v> 460</v>
+      </c>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189" t="n">
+        <v> 410</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190" t="n">
+        <v>  40</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190" t="n">
+        <v>  34</v>
+      </c>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190" t="n">
+        <v>  28</v>
+      </c>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190" t="n">
+        <v>  26</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191" t="n">
+        <v> 680</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191" t="n">
+        <v> 500</v>
+      </c>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191" t="n">
+        <v> 330</v>
+      </c>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191" t="n">
+        <v> 270</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" t="n">
+        <v> 580</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192" t="n">
+        <v> 510</v>
+      </c>
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192" t="n">
+        <v> 480</v>
+      </c>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192" t="n">
+        <v> 450</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193" t="n">
+        <v>  91</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193" t="n">
+        <v> 100</v>
+      </c>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193" t="n">
+        <v> 120</v>
+      </c>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193" t="n">
+        <v> 120</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194" t="n">
+        <v>  59</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194" t="n">
+        <v>  58</v>
+      </c>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194" t="n">
+        <v>  82</v>
+      </c>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194" t="n">
+        <v>  84</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" t="n">
+        <v>  65</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195" t="n">
+        <v>  55</v>
+      </c>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195" t="n">
+        <v>  48</v>
+      </c>
+      <c r="N195"/>
+      <c r="O195"/>
+      <c r="P195" t="n">
+        <v>  46</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" t="n">
+        <v>  33</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196" t="n">
+        <v>  27</v>
+      </c>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196" t="n">
+        <v>  22</v>
+      </c>
+      <c r="N196"/>
+      <c r="O196"/>
+      <c r="P196" t="n">
+        <v>  20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197" t="n">
+        <v>  81</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197" t="n">
+        <v>  76</v>
+      </c>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197" t="n">
+        <v>  65</v>
+      </c>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197" t="n">
+        <v>  61</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>398</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200" t="n">
+        <v>   8</v>
+      </c>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200" t="n">
+        <v>   8</v>
+      </c>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200" t="n">
+        <v>   8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201" t="n">
+        <v> 650</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201" t="n">
+        <v> 510</v>
+      </c>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201" t="n">
+        <v> 410</v>
+      </c>
+      <c r="N201"/>
+      <c r="O201"/>
+      <c r="P201" t="n">
+        <v> 360</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202" t="n">
+        <v>  35</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202" t="n">
+        <v>  25</v>
+      </c>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202" t="n">
+        <v>  29</v>
+      </c>
+      <c r="N202"/>
+      <c r="O202"/>
+      <c r="P202" t="n">
+        <v>  23</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203" t="n">
+        <v>  11</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203" t="n">
+        <v>  12</v>
+      </c>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203" t="n">
+        <v>  11</v>
+      </c>
+      <c r="N203"/>
+      <c r="O203"/>
+      <c r="P203" t="n">
+        <v>   8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" t="n">
+        <v>  35</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204" t="n">
+        <v>  32</v>
+      </c>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204" t="n">
+        <v>  23</v>
+      </c>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204" t="n">
+        <v>  14</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" t="n">
+        <v>  13</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205" t="n">
+        <v>  17</v>
+      </c>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205" t="n">
+        <v>  27</v>
+      </c>
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205" t="n">
+        <v>  28</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206" t="n">
+        <v>  48</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206" t="n">
+        <v>  44</v>
+      </c>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206" t="n">
+        <v>  40</v>
+      </c>
+      <c r="N206"/>
+      <c r="O206"/>
+      <c r="P206" t="n">
+        <v>  36</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" t="n">
+        <v> 120</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207" t="n">
+        <v> 100</v>
+      </c>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207" t="n">
+        <v>  90</v>
+      </c>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207" t="n">
+        <v>  86</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208" t="n">
+        <v>  91</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208" t="n">
+        <v>  94</v>
+      </c>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208" t="n">
+        <v> 110</v>
+      </c>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208" t="n">
+        <v> 110</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209" t="n">
+        <v>  82</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209" t="n">
+        <v>  60</v>
+      </c>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209" t="n">
+        <v>  51</v>
+      </c>
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209" t="n">
+        <v>  49</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" t="s">
+        <v>424</v>
+      </c>
+      <c r="C211" t="n">
+        <v> 370</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211" t="n">
+        <v> 330</v>
+      </c>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211" t="n">
+        <v> 290</v>
+      </c>
+      <c r="N211"/>
+      <c r="O211"/>
+      <c r="P211" t="n">
+        <v> 270</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212" t="n">
+        <v> 610</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212" t="n">
+        <v> 430</v>
+      </c>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212" t="n">
+        <v> 320</v>
+      </c>
+      <c r="N212"/>
+      <c r="O212"/>
+      <c r="P212" t="n">
+        <v> 280</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213" t="n">
+        <v> 680</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213" t="n">
+        <v> 740</v>
+      </c>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213" t="n">
+        <v> 610</v>
+      </c>
+      <c r="N213"/>
+      <c r="O213"/>
+      <c r="P213" t="n">
+        <v> 470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/maternal-mortality/maternal-mortality.xlsx
+++ b/user-data/maternal-mortality/maternal-mortality.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -1376,7 +1376,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1809,6 +1812,11 @@
         <v>455</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/maternal-mortality/maternal-mortality.xlsx
+++ b/user-data/maternal-mortality/maternal-mortality.xlsx
@@ -71,7 +71,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -179,7 +179,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -302,6 +296,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -317,7 +317,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -995,7 +995,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1013,7 +1013,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1187,7 +1187,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1211,7 +1211,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1232,16 +1232,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1385,7 +1385,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8437,10 +8437,10 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>670</v>
+        <v>540</v>
       </c>
       <c r="E436" t="n">
-        <v> 670</v>
+        <v> 540</v>
       </c>
     </row>
     <row r="437">
@@ -8454,7 +8454,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>686</v>
+        <v>496</v>
       </c>
       <c r="E437"/>
     </row>
@@ -8469,7 +8469,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>702</v>
+        <v>452</v>
       </c>
       <c r="E438"/>
     </row>
@@ -8484,7 +8484,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>718</v>
+        <v>408</v>
       </c>
       <c r="E439"/>
     </row>
@@ -8499,7 +8499,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>734</v>
+        <v>364</v>
       </c>
       <c r="E440"/>
     </row>
@@ -8514,10 +8514,10 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="E441" t="n">
-        <v> 750</v>
+        <v> 320</v>
       </c>
     </row>
     <row r="442">
@@ -8531,7 +8531,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>750</v>
+        <v>296</v>
       </c>
       <c r="E442"/>
     </row>
@@ -8546,7 +8546,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>750</v>
+        <v>272</v>
       </c>
       <c r="E443"/>
     </row>
@@ -8561,7 +8561,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>750</v>
+        <v>248</v>
       </c>
       <c r="E444"/>
     </row>
@@ -8576,7 +8576,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>750</v>
+        <v>224</v>
       </c>
       <c r="E445"/>
     </row>
@@ -8591,10 +8591,10 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E446" t="n">
-        <v> 750</v>
+        <v> 200</v>
       </c>
     </row>
     <row r="447">
@@ -8608,7 +8608,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>740</v>
+        <v>190</v>
       </c>
       <c r="E447"/>
     </row>
@@ -8623,7 +8623,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>730</v>
+        <v>180</v>
       </c>
       <c r="E448"/>
     </row>
@@ -8638,10 +8638,10 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>720</v>
+        <v>170</v>
       </c>
       <c r="E449" t="n">
-        <v> 720</v>
+        <v> 170</v>
       </c>
     </row>
     <row r="450">
@@ -8655,10 +8655,10 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>540</v>
+        <v>740</v>
       </c>
       <c r="E450" t="n">
-        <v> 540</v>
+        <v> 740</v>
       </c>
     </row>
     <row r="451">
@@ -8672,7 +8672,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>496</v>
+        <v>730</v>
       </c>
       <c r="E451"/>
     </row>
@@ -8687,7 +8687,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>452</v>
+        <v>720</v>
       </c>
       <c r="E452"/>
     </row>
@@ -8702,7 +8702,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>408</v>
+        <v>710</v>
       </c>
       <c r="E453"/>
     </row>
@@ -8717,7 +8717,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>364</v>
+        <v>700</v>
       </c>
       <c r="E454"/>
     </row>
@@ -8732,10 +8732,10 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>320</v>
+        <v>690</v>
       </c>
       <c r="E455" t="n">
-        <v> 320</v>
+        <v> 690</v>
       </c>
     </row>
     <row r="456">
@@ -8749,7 +8749,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>296</v>
+        <v>680</v>
       </c>
       <c r="E456"/>
     </row>
@@ -8764,7 +8764,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>272</v>
+        <v>670</v>
       </c>
       <c r="E457"/>
     </row>
@@ -8779,7 +8779,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>248</v>
+        <v>660</v>
       </c>
       <c r="E458"/>
     </row>
@@ -8794,7 +8794,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>224</v>
+        <v>650</v>
       </c>
       <c r="E459"/>
     </row>
@@ -8809,10 +8809,10 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="E460" t="n">
-        <v> 200</v>
+        <v> 640</v>
       </c>
     </row>
     <row r="461">
@@ -8826,7 +8826,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>190</v>
+        <v>623.3333333333</v>
       </c>
       <c r="E461"/>
     </row>
@@ -8841,7 +8841,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>180</v>
+        <v>606.6666666667</v>
       </c>
       <c r="E462"/>
     </row>
@@ -8856,10 +8856,10 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>170</v>
+        <v>590</v>
       </c>
       <c r="E463" t="n">
-        <v> 170</v>
+        <v> 590</v>
       </c>
     </row>
     <row r="464">
@@ -8873,10 +8873,10 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>740</v>
+        <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v> 740</v>
+        <v>   7</v>
       </c>
     </row>
     <row r="465">
@@ -8890,7 +8890,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>730</v>
+        <v>7.8</v>
       </c>
       <c r="E465"/>
     </row>
@@ -8905,7 +8905,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>720</v>
+        <v>8.6</v>
       </c>
       <c r="E466"/>
     </row>
@@ -8920,7 +8920,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>710</v>
+        <v>9.4</v>
       </c>
       <c r="E467"/>
     </row>
@@ -8935,7 +8935,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>700</v>
+        <v>10.2</v>
       </c>
       <c r="E468"/>
     </row>
@@ -8950,10 +8950,10 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>690</v>
+        <v>11</v>
       </c>
       <c r="E469" t="n">
-        <v> 690</v>
+        <v>  11</v>
       </c>
     </row>
     <row r="470">
@@ -8967,7 +8967,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>680</v>
+        <v>11.4</v>
       </c>
       <c r="E470"/>
     </row>
@@ -8982,7 +8982,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>670</v>
+        <v>11.8</v>
       </c>
       <c r="E471"/>
     </row>
@@ -8997,7 +8997,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>660</v>
+        <v>12.2</v>
       </c>
       <c r="E472"/>
     </row>
@@ -9012,7 +9012,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>650</v>
+        <v>12.6</v>
       </c>
       <c r="E473"/>
     </row>
@@ -9027,10 +9027,10 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>640</v>
+        <v>13</v>
       </c>
       <c r="E474" t="n">
-        <v> 640</v>
+        <v>  13</v>
       </c>
     </row>
     <row r="475">
@@ -9044,7 +9044,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>623.3333333333</v>
+        <v>12.3333333333</v>
       </c>
       <c r="E475"/>
     </row>
@@ -9059,7 +9059,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>606.6666666667</v>
+        <v>11.6666666667</v>
       </c>
       <c r="E476"/>
     </row>
@@ -9074,10 +9074,10 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>590</v>
+        <v>11</v>
       </c>
       <c r="E477" t="n">
-        <v> 590</v>
+        <v>  11</v>
       </c>
     </row>
     <row r="478">
@@ -9091,10 +9091,10 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E478" t="n">
-        <v>   7</v>
+        <v>  84</v>
       </c>
     </row>
     <row r="479">
@@ -9108,7 +9108,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>7.8</v>
+        <v>79.8</v>
       </c>
       <c r="E479"/>
     </row>
@@ -9123,7 +9123,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>8.6</v>
+        <v>75.6</v>
       </c>
       <c r="E480"/>
     </row>
@@ -9138,7 +9138,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>9.4</v>
+        <v>71.4</v>
       </c>
       <c r="E481"/>
     </row>
@@ -9153,7 +9153,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>10.2</v>
+        <v>67.2</v>
       </c>
       <c r="E482"/>
     </row>
@@ -9168,10 +9168,10 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E483" t="n">
-        <v>  11</v>
+        <v>  63</v>
       </c>
     </row>
     <row r="484">
@@ -9185,7 +9185,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>11.4</v>
+        <v>62</v>
       </c>
       <c r="E484"/>
     </row>
@@ -9200,7 +9200,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>11.8</v>
+        <v>61</v>
       </c>
       <c r="E485"/>
     </row>
@@ -9215,7 +9215,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>12.2</v>
+        <v>60</v>
       </c>
       <c r="E486"/>
     </row>
@@ -9230,7 +9230,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>12.6</v>
+        <v>59</v>
       </c>
       <c r="E487"/>
     </row>
@@ -9245,10 +9245,10 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E488" t="n">
-        <v>  13</v>
+        <v>  58</v>
       </c>
     </row>
     <row r="489">
@@ -9262,7 +9262,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>12.3333333333</v>
+        <v>56.3333333333</v>
       </c>
       <c r="E489"/>
     </row>
@@ -9277,7 +9277,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>11.6666666667</v>
+        <v>54.6666666667</v>
       </c>
       <c r="E490"/>
     </row>
@@ -9292,10 +9292,10 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E491" t="n">
-        <v>  11</v>
+        <v>  53</v>
       </c>
     </row>
     <row r="492">
@@ -9309,10 +9309,10 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>84</v>
+        <v>1200</v>
       </c>
       <c r="E492" t="n">
-        <v>  84</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="493">
@@ -9326,7 +9326,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>79.8</v>
+        <v>1180</v>
       </c>
       <c r="E493"/>
     </row>
@@ -9341,7 +9341,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>75.6</v>
+        <v>1160</v>
       </c>
       <c r="E494"/>
     </row>
@@ -9356,7 +9356,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>71.4</v>
+        <v>1140</v>
       </c>
       <c r="E495"/>
     </row>
@@ -9371,7 +9371,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>67.2</v>
+        <v>1120</v>
       </c>
       <c r="E496"/>
     </row>
@@ -9386,10 +9386,10 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>63</v>
+        <v>1100</v>
       </c>
       <c r="E497" t="n">
-        <v>  63</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="498">
@@ -9403,7 +9403,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>62</v>
+        <v>1072</v>
       </c>
       <c r="E498"/>
     </row>
@@ -9418,7 +9418,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>61</v>
+        <v>1044</v>
       </c>
       <c r="E499"/>
     </row>
@@ -9433,7 +9433,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>60</v>
+        <v>1016</v>
       </c>
       <c r="E500"/>
     </row>
@@ -9448,7 +9448,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>59</v>
+        <v>988</v>
       </c>
       <c r="E501"/>
     </row>
@@ -9463,10 +9463,10 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>58</v>
+        <v>960</v>
       </c>
       <c r="E502" t="n">
-        <v>  58</v>
+        <v> 960</v>
       </c>
     </row>
     <row r="503">
@@ -9480,7 +9480,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>56.3333333333</v>
+        <v>933.3333333333</v>
       </c>
       <c r="E503"/>
     </row>
@@ -9495,7 +9495,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>54.6666666667</v>
+        <v>906.6666666667</v>
       </c>
       <c r="E504"/>
     </row>
@@ -9510,10 +9510,10 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>53</v>
+        <v>880</v>
       </c>
       <c r="E505" t="n">
-        <v>  53</v>
+        <v> 880</v>
       </c>
     </row>
     <row r="506">
@@ -9526,12 +9526,8 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E506" t="n">
-        <v>1200</v>
-      </c>
+      <c r="D506"/>
+      <c r="E506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -9543,9 +9539,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>1180</v>
-      </c>
+      <c r="D507"/>
       <c r="E507"/>
     </row>
     <row r="508">
@@ -9558,9 +9552,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>1160</v>
-      </c>
+      <c r="D508"/>
       <c r="E508"/>
     </row>
     <row r="509">
@@ -9573,9 +9565,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>1140</v>
-      </c>
+      <c r="D509"/>
       <c r="E509"/>
     </row>
     <row r="510">
@@ -9588,9 +9578,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>1120</v>
-      </c>
+      <c r="D510"/>
       <c r="E510"/>
     </row>
     <row r="511">
@@ -9603,12 +9591,8 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E511" t="n">
-        <v>1100</v>
-      </c>
+      <c r="D511"/>
+      <c r="E511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -9620,9 +9604,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>1072</v>
-      </c>
+      <c r="D512"/>
       <c r="E512"/>
     </row>
     <row r="513">
@@ -9635,9 +9617,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>1044</v>
-      </c>
+      <c r="D513"/>
       <c r="E513"/>
     </row>
     <row r="514">
@@ -9650,9 +9630,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>1016</v>
-      </c>
+      <c r="D514"/>
       <c r="E514"/>
     </row>
     <row r="515">
@@ -9665,9 +9643,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>988</v>
-      </c>
+      <c r="D515"/>
       <c r="E515"/>
     </row>
     <row r="516">
@@ -9680,12 +9656,8 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>960</v>
-      </c>
-      <c r="E516" t="n">
-        <v> 960</v>
-      </c>
+      <c r="D516"/>
+      <c r="E516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -9697,9 +9669,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>933.3333333333</v>
-      </c>
+      <c r="D517"/>
       <c r="E517"/>
     </row>
     <row r="518">
@@ -9712,9 +9682,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>906.6666666667</v>
-      </c>
+      <c r="D518"/>
       <c r="E518"/>
     </row>
     <row r="519">
@@ -9727,12 +9695,8 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>880</v>
-      </c>
-      <c r="E519" t="n">
-        <v> 880</v>
-      </c>
+      <c r="D519"/>
+      <c r="E519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -9744,8 +9708,12 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
-      <c r="E520"/>
+      <c r="D520" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E520" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -9757,7 +9725,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>1440</v>
+      </c>
       <c r="E521"/>
     </row>
     <row r="522">
@@ -9770,7 +9740,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>1380</v>
+      </c>
       <c r="E522"/>
     </row>
     <row r="523">
@@ -9783,7 +9755,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>1320</v>
+      </c>
       <c r="E523"/>
     </row>
     <row r="524">
@@ -9796,7 +9770,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>1260</v>
+      </c>
       <c r="E524"/>
     </row>
     <row r="525">
@@ -9809,8 +9785,12 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
-      <c r="E525"/>
+      <c r="D525" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E525" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9822,7 +9802,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>1180</v>
+      </c>
       <c r="E526"/>
     </row>
     <row r="527">
@@ -9835,7 +9817,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>1160</v>
+      </c>
       <c r="E527"/>
     </row>
     <row r="528">
@@ -9848,7 +9832,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>1140</v>
+      </c>
       <c r="E528"/>
     </row>
     <row r="529">
@@ -9861,7 +9847,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>1120</v>
+      </c>
       <c r="E529"/>
     </row>
     <row r="530">
@@ -9874,8 +9862,12 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
-      <c r="E530"/>
+      <c r="D530" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1100</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9887,7 +9879,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>1060</v>
+      </c>
       <c r="E531"/>
     </row>
     <row r="532">
@@ -9900,7 +9894,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>1020</v>
+      </c>
       <c r="E532"/>
     </row>
     <row r="533">
@@ -9913,8 +9909,12 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
-      <c r="E533"/>
+      <c r="D533" t="n">
+        <v>980</v>
+      </c>
+      <c r="E533" t="n">
+        <v> 980</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9927,10 +9927,10 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>1500</v>
+        <v>29</v>
       </c>
       <c r="E534" t="n">
-        <v>1500</v>
+        <v>  29</v>
       </c>
     </row>
     <row r="535">
@@ -9944,7 +9944,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>1440</v>
+        <v>28.4</v>
       </c>
       <c r="E535"/>
     </row>
@@ -9959,7 +9959,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>1380</v>
+        <v>27.8</v>
       </c>
       <c r="E536"/>
     </row>
@@ -9974,7 +9974,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>1320</v>
+        <v>27.2</v>
       </c>
       <c r="E537"/>
     </row>
@@ -9989,7 +9989,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>1260</v>
+        <v>26.6</v>
       </c>
       <c r="E538"/>
     </row>
@@ -10004,10 +10004,10 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>1200</v>
+        <v>26</v>
       </c>
       <c r="E539" t="n">
-        <v>1200</v>
+        <v>  26</v>
       </c>
     </row>
     <row r="540">
@@ -10021,7 +10021,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>1180</v>
+        <v>25.6</v>
       </c>
       <c r="E540"/>
     </row>
@@ -10036,7 +10036,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>1160</v>
+        <v>25.2</v>
       </c>
       <c r="E541"/>
     </row>
@@ -10051,7 +10051,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>1140</v>
+        <v>24.8</v>
       </c>
       <c r="E542"/>
     </row>
@@ -10066,7 +10066,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>1120</v>
+        <v>24.4</v>
       </c>
       <c r="E543"/>
     </row>
@@ -10081,10 +10081,10 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>1100</v>
+        <v>24</v>
       </c>
       <c r="E544" t="n">
-        <v>1100</v>
+        <v>  24</v>
       </c>
     </row>
     <row r="545">
@@ -10098,7 +10098,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>1060</v>
+        <v>23.3333333333</v>
       </c>
       <c r="E545"/>
     </row>
@@ -10113,7 +10113,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>1020</v>
+        <v>22.6666666667</v>
       </c>
       <c r="E546"/>
     </row>
@@ -10128,10 +10128,10 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="E547" t="n">
-        <v> 980</v>
+        <v>  22</v>
       </c>
     </row>
     <row r="548">
@@ -10145,10 +10145,10 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E548" t="n">
-        <v>  29</v>
+        <v>  63</v>
       </c>
     </row>
     <row r="549">
@@ -10162,7 +10162,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>28.4</v>
+        <v>60.4</v>
       </c>
       <c r="E549"/>
     </row>
@@ -10177,7 +10177,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>27.8</v>
+        <v>57.8</v>
       </c>
       <c r="E550"/>
     </row>
@@ -10192,7 +10192,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>27.2</v>
+        <v>55.2</v>
       </c>
       <c r="E551"/>
     </row>
@@ -10207,7 +10207,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>26.6</v>
+        <v>52.6</v>
       </c>
       <c r="E552"/>
     </row>
@@ -10222,10 +10222,10 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E553" t="n">
-        <v>  26</v>
+        <v>  50</v>
       </c>
     </row>
     <row r="554">
@@ -10239,7 +10239,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>25.6</v>
+        <v>47.2</v>
       </c>
       <c r="E554"/>
     </row>
@@ -10254,7 +10254,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>25.2</v>
+        <v>44.4</v>
       </c>
       <c r="E555"/>
     </row>
@@ -10269,7 +10269,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>24.8</v>
+        <v>41.6</v>
       </c>
       <c r="E556"/>
     </row>
@@ -10284,7 +10284,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>24.4</v>
+        <v>38.8</v>
       </c>
       <c r="E557"/>
     </row>
@@ -10299,10 +10299,10 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E558" t="n">
-        <v>  24</v>
+        <v>  36</v>
       </c>
     </row>
     <row r="559">
@@ -10316,7 +10316,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>23.3333333333</v>
+        <v>34.6666666667</v>
       </c>
       <c r="E559"/>
     </row>
@@ -10331,7 +10331,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>22.6666666667</v>
+        <v>33.3333333333</v>
       </c>
       <c r="E560"/>
     </row>
@@ -10346,10 +10346,10 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E561" t="n">
-        <v>  22</v>
+        <v>  32</v>
       </c>
     </row>
     <row r="562">
@@ -10363,10 +10363,10 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="E562" t="n">
-        <v>  63</v>
+        <v> 130</v>
       </c>
     </row>
     <row r="563">
@@ -10380,7 +10380,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>60.4</v>
+        <v>123.4</v>
       </c>
       <c r="E563"/>
     </row>
@@ -10395,7 +10395,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>57.8</v>
+        <v>116.8</v>
       </c>
       <c r="E564"/>
     </row>
@@ -10410,7 +10410,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>55.2</v>
+        <v>110.2</v>
       </c>
       <c r="E565"/>
     </row>
@@ -10425,7 +10425,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>52.6</v>
+        <v>103.6</v>
       </c>
       <c r="E566"/>
     </row>
@@ -10440,10 +10440,10 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E567" t="n">
-        <v>  50</v>
+        <v>  97</v>
       </c>
     </row>
     <row r="568">
@@ -10457,7 +10457,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>47.2</v>
+        <v>94.6</v>
       </c>
       <c r="E568"/>
     </row>
@@ -10472,7 +10472,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>44.4</v>
+        <v>92.2</v>
       </c>
       <c r="E569"/>
     </row>
@@ -10487,7 +10487,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>41.6</v>
+        <v>89.8</v>
       </c>
       <c r="E570"/>
     </row>
@@ -10502,7 +10502,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>38.8</v>
+        <v>87.4</v>
       </c>
       <c r="E571"/>
     </row>
@@ -10517,10 +10517,10 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E572" t="n">
-        <v>  36</v>
+        <v>  85</v>
       </c>
     </row>
     <row r="573">
@@ -10534,7 +10534,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>34.6666666667</v>
+        <v>84.3333333333</v>
       </c>
       <c r="E573"/>
     </row>
@@ -10549,7 +10549,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>33.3333333333</v>
+        <v>83.6666666667</v>
       </c>
       <c r="E574"/>
     </row>
@@ -10564,10 +10564,10 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E575" t="n">
-        <v>  32</v>
+        <v>  83</v>
       </c>
     </row>
     <row r="576">
@@ -10581,10 +10581,10 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="E576" t="n">
-        <v> 130</v>
+        <v> 480</v>
       </c>
     </row>
     <row r="577">
@@ -10598,7 +10598,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>123.4</v>
+        <v>470</v>
       </c>
       <c r="E577"/>
     </row>
@@ -10613,7 +10613,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>116.8</v>
+        <v>460</v>
       </c>
       <c r="E578"/>
     </row>
@@ -10628,7 +10628,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>110.2</v>
+        <v>450</v>
       </c>
       <c r="E579"/>
     </row>
@@ -10643,7 +10643,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>103.6</v>
+        <v>440</v>
       </c>
       <c r="E580"/>
     </row>
@@ -10658,10 +10658,10 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="E581" t="n">
-        <v>  97</v>
+        <v> 430</v>
       </c>
     </row>
     <row r="582">
@@ -10675,7 +10675,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>94.6</v>
+        <v>420</v>
       </c>
       <c r="E582"/>
     </row>
@@ -10690,7 +10690,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>92.2</v>
+        <v>410</v>
       </c>
       <c r="E583"/>
     </row>
@@ -10705,7 +10705,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>89.8</v>
+        <v>400</v>
       </c>
       <c r="E584"/>
     </row>
@@ -10720,7 +10720,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>87.4</v>
+        <v>390</v>
       </c>
       <c r="E585"/>
     </row>
@@ -10735,10 +10735,10 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="E586" t="n">
-        <v>  85</v>
+        <v> 380</v>
       </c>
     </row>
     <row r="587">
@@ -10752,7 +10752,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>84.3333333333</v>
+        <v>370</v>
       </c>
       <c r="E587"/>
     </row>
@@ -10767,7 +10767,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>83.6666666667</v>
+        <v>360</v>
       </c>
       <c r="E588"/>
     </row>
@@ -10782,10 +10782,10 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="E589" t="n">
-        <v>  83</v>
+        <v> 350</v>
       </c>
     </row>
     <row r="590">
@@ -10799,10 +10799,10 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="E590" t="n">
-        <v> 480</v>
+        <v> 610</v>
       </c>
     </row>
     <row r="591">
@@ -10816,7 +10816,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>470</v>
+        <v>594</v>
       </c>
       <c r="E591"/>
     </row>
@@ -10831,7 +10831,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="E592"/>
     </row>
@@ -10846,7 +10846,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="E593"/>
     </row>
@@ -10861,7 +10861,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>440</v>
+        <v>546</v>
       </c>
       <c r="E594"/>
     </row>
@@ -10876,10 +10876,10 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="E595" t="n">
-        <v> 430</v>
+        <v> 530</v>
       </c>
     </row>
     <row r="596">
@@ -10893,7 +10893,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="E596"/>
     </row>
@@ -10908,7 +10908,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="E597"/>
     </row>
@@ -10923,7 +10923,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="E598"/>
     </row>
@@ -10938,7 +10938,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="E599"/>
     </row>
@@ -10953,10 +10953,10 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="E600" t="n">
-        <v> 380</v>
+        <v> 450</v>
       </c>
     </row>
     <row r="601">
@@ -10970,7 +10970,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>370</v>
+        <v>436.6666666667</v>
       </c>
       <c r="E601"/>
     </row>
@@ -10985,7 +10985,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>360</v>
+        <v>423.3333333333</v>
       </c>
       <c r="E602"/>
     </row>
@@ -11000,10 +11000,10 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="E603" t="n">
-        <v> 350</v>
+        <v> 410</v>
       </c>
     </row>
     <row r="604">
@@ -11017,10 +11017,10 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="E604" t="n">
-        <v> 610</v>
+        <v>  44</v>
       </c>
     </row>
     <row r="605">
@@ -11034,7 +11034,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>594</v>
+        <v>44.4</v>
       </c>
       <c r="E605"/>
     </row>
@@ -11049,7 +11049,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>578</v>
+        <v>44.8</v>
       </c>
       <c r="E606"/>
     </row>
@@ -11064,7 +11064,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>562</v>
+        <v>45.2</v>
       </c>
       <c r="E607"/>
     </row>
@@ -11079,7 +11079,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>546</v>
+        <v>45.6</v>
       </c>
       <c r="E608"/>
     </row>
@@ -11094,10 +11094,10 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>530</v>
+        <v>46</v>
       </c>
       <c r="E609" t="n">
-        <v> 530</v>
+        <v>  46</v>
       </c>
     </row>
     <row r="610">
@@ -11111,7 +11111,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>514</v>
+        <v>43.4</v>
       </c>
       <c r="E610"/>
     </row>
@@ -11126,7 +11126,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>498</v>
+        <v>40.8</v>
       </c>
       <c r="E611"/>
     </row>
@@ -11141,7 +11141,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>482</v>
+        <v>38.2</v>
       </c>
       <c r="E612"/>
     </row>
@@ -11156,7 +11156,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>466</v>
+        <v>35.6</v>
       </c>
       <c r="E613"/>
     </row>
@@ -11171,10 +11171,10 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>450</v>
+        <v>33</v>
       </c>
       <c r="E614" t="n">
-        <v> 450</v>
+        <v>  33</v>
       </c>
     </row>
     <row r="615">
@@ -11188,7 +11188,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>436.6666666667</v>
+        <v>34.6666666667</v>
       </c>
       <c r="E615"/>
     </row>
@@ -11203,7 +11203,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>423.3333333333</v>
+        <v>36.3333333333</v>
       </c>
       <c r="E616"/>
     </row>
@@ -11218,10 +11218,10 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="E617" t="n">
-        <v> 410</v>
+        <v>  38</v>
       </c>
     </row>
     <row r="618">
@@ -11235,10 +11235,10 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>44</v>
+        <v>670</v>
       </c>
       <c r="E618" t="n">
-        <v>  44</v>
+        <v> 670</v>
       </c>
     </row>
     <row r="619">
@@ -11252,7 +11252,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>44.4</v>
+        <v>686</v>
       </c>
       <c r="E619"/>
     </row>
@@ -11267,7 +11267,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>44.8</v>
+        <v>702</v>
       </c>
       <c r="E620"/>
     </row>
@@ -11282,7 +11282,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>45.2</v>
+        <v>718</v>
       </c>
       <c r="E621"/>
     </row>
@@ -11297,7 +11297,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>45.6</v>
+        <v>734</v>
       </c>
       <c r="E622"/>
     </row>
@@ -11312,10 +11312,10 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>46</v>
+        <v>750</v>
       </c>
       <c r="E623" t="n">
-        <v>  46</v>
+        <v> 750</v>
       </c>
     </row>
     <row r="624">
@@ -11329,7 +11329,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>43.4</v>
+        <v>750</v>
       </c>
       <c r="E624"/>
     </row>
@@ -11344,7 +11344,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>40.8</v>
+        <v>750</v>
       </c>
       <c r="E625"/>
     </row>
@@ -11359,7 +11359,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>38.2</v>
+        <v>750</v>
       </c>
       <c r="E626"/>
     </row>
@@ -11374,7 +11374,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>35.6</v>
+        <v>750</v>
       </c>
       <c r="E627"/>
     </row>
@@ -11389,10 +11389,10 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>33</v>
+        <v>750</v>
       </c>
       <c r="E628" t="n">
-        <v>  33</v>
+        <v> 750</v>
       </c>
     </row>
     <row r="629">
@@ -11406,7 +11406,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>34.6666666667</v>
+        <v>740</v>
       </c>
       <c r="E629"/>
     </row>
@@ -11421,7 +11421,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>36.3333333333</v>
+        <v>730</v>
       </c>
       <c r="E630"/>
     </row>
@@ -11436,10 +11436,10 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>38</v>
+        <v>720</v>
       </c>
       <c r="E631" t="n">
-        <v>  38</v>
+        <v> 720</v>
       </c>
     </row>
     <row r="632">
@@ -44451,10 +44451,10 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E2802" t="n">
-        <v>  35</v>
+        <v>  11</v>
       </c>
     </row>
     <row r="2803">
@@ -44468,7 +44468,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>33</v>
+        <v>11.2</v>
       </c>
       <c r="E2803"/>
     </row>
@@ -44483,7 +44483,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>31</v>
+        <v>11.4</v>
       </c>
       <c r="E2804"/>
     </row>
@@ -44498,7 +44498,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>29</v>
+        <v>11.6</v>
       </c>
       <c r="E2805"/>
     </row>
@@ -44513,7 +44513,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>27</v>
+        <v>11.8</v>
       </c>
       <c r="E2806"/>
     </row>
@@ -44528,10 +44528,10 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E2807" t="n">
-        <v>  25</v>
+        <v>  12</v>
       </c>
     </row>
     <row r="2808">
@@ -44545,7 +44545,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>25.8</v>
+        <v>11.8</v>
       </c>
       <c r="E2808"/>
     </row>
@@ -44560,7 +44560,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>26.6</v>
+        <v>11.6</v>
       </c>
       <c r="E2809"/>
     </row>
@@ -44575,7 +44575,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>27.4</v>
+        <v>11.4</v>
       </c>
       <c r="E2810"/>
     </row>
@@ -44590,7 +44590,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>28.2</v>
+        <v>11.2</v>
       </c>
       <c r="E2811"/>
     </row>
@@ -44605,10 +44605,10 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E2812" t="n">
-        <v>  29</v>
+        <v>  11</v>
       </c>
     </row>
     <row r="2813">
@@ -44622,7 +44622,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E2813"/>
     </row>
@@ -44637,7 +44637,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E2814"/>
     </row>
@@ -44652,10 +44652,10 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2815" t="n">
-        <v>  23</v>
+        <v>   8</v>
       </c>
     </row>
     <row r="2816">
@@ -44669,10 +44669,10 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E2816" t="n">
-        <v>  11</v>
+        <v>  35</v>
       </c>
     </row>
     <row r="2817">
@@ -44686,7 +44686,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>11.2</v>
+        <v>33</v>
       </c>
       <c r="E2817"/>
     </row>
@@ -44701,7 +44701,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>11.4</v>
+        <v>31</v>
       </c>
       <c r="E2818"/>
     </row>
@@ -44716,7 +44716,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>11.6</v>
+        <v>29</v>
       </c>
       <c r="E2819"/>
     </row>
@@ -44731,7 +44731,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>11.8</v>
+        <v>27</v>
       </c>
       <c r="E2820"/>
     </row>
@@ -44746,10 +44746,10 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E2821" t="n">
-        <v>  12</v>
+        <v>  25</v>
       </c>
     </row>
     <row r="2822">
@@ -44763,7 +44763,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>11.8</v>
+        <v>25.8</v>
       </c>
       <c r="E2822"/>
     </row>
@@ -44778,7 +44778,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>11.6</v>
+        <v>26.6</v>
       </c>
       <c r="E2823"/>
     </row>
@@ -44793,7 +44793,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>11.4</v>
+        <v>27.4</v>
       </c>
       <c r="E2824"/>
     </row>
@@ -44808,7 +44808,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>11.2</v>
+        <v>28.2</v>
       </c>
       <c r="E2825"/>
     </row>
@@ -44823,10 +44823,10 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E2826" t="n">
-        <v>  11</v>
+        <v>  29</v>
       </c>
     </row>
     <row r="2827">
@@ -44840,7 +44840,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E2827"/>
     </row>
@@ -44855,7 +44855,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2828"/>
     </row>
@@ -44870,10 +44870,10 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2829" t="n">
-        <v>   8</v>
+        <v>  23</v>
       </c>
     </row>
     <row r="2830">
@@ -48502,46 +48502,46 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>670</v>
+        <v>540</v>
       </c>
       <c r="D33" t="n">
-        <v>686</v>
+        <v>496</v>
       </c>
       <c r="E33" t="n">
-        <v>702</v>
+        <v>452</v>
       </c>
       <c r="F33" t="n">
-        <v>718</v>
+        <v>408</v>
       </c>
       <c r="G33" t="n">
-        <v>734</v>
+        <v>364</v>
       </c>
       <c r="H33" t="n">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="I33" t="n">
-        <v>750</v>
+        <v>296</v>
       </c>
       <c r="J33" t="n">
-        <v>750</v>
+        <v>272</v>
       </c>
       <c r="K33" t="n">
-        <v>750</v>
+        <v>248</v>
       </c>
       <c r="L33" t="n">
-        <v>750</v>
+        <v>224</v>
       </c>
       <c r="M33" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>740</v>
+        <v>190</v>
       </c>
       <c r="O33" t="n">
-        <v>730</v>
+        <v>180</v>
       </c>
       <c r="P33" t="n">
-        <v>720</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -48552,46 +48552,46 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>540</v>
+        <v>740</v>
       </c>
       <c r="D34" t="n">
-        <v>496</v>
+        <v>730</v>
       </c>
       <c r="E34" t="n">
-        <v>452</v>
+        <v>720</v>
       </c>
       <c r="F34" t="n">
-        <v>408</v>
+        <v>710</v>
       </c>
       <c r="G34" t="n">
-        <v>364</v>
+        <v>700</v>
       </c>
       <c r="H34" t="n">
-        <v>320</v>
+        <v>690</v>
       </c>
       <c r="I34" t="n">
-        <v>296</v>
+        <v>680</v>
       </c>
       <c r="J34" t="n">
-        <v>272</v>
+        <v>670</v>
       </c>
       <c r="K34" t="n">
-        <v>248</v>
+        <v>660</v>
       </c>
       <c r="L34" t="n">
-        <v>224</v>
+        <v>650</v>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N34" t="n">
-        <v>190</v>
+        <v>623.3333333333</v>
       </c>
       <c r="O34" t="n">
-        <v>180</v>
+        <v>606.6666666667</v>
       </c>
       <c r="P34" t="n">
-        <v>170</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35">
@@ -48602,46 +48602,46 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>740</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>730</v>
+        <v>7.8</v>
       </c>
       <c r="E35" t="n">
-        <v>720</v>
+        <v>8.6</v>
       </c>
       <c r="F35" t="n">
-        <v>710</v>
+        <v>9.4</v>
       </c>
       <c r="G35" t="n">
-        <v>700</v>
+        <v>10.2</v>
       </c>
       <c r="H35" t="n">
-        <v>690</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>680</v>
+        <v>11.4</v>
       </c>
       <c r="J35" t="n">
-        <v>670</v>
+        <v>11.8</v>
       </c>
       <c r="K35" t="n">
-        <v>660</v>
+        <v>12.2</v>
       </c>
       <c r="L35" t="n">
-        <v>650</v>
+        <v>12.6</v>
       </c>
       <c r="M35" t="n">
-        <v>640</v>
+        <v>13</v>
       </c>
       <c r="N35" t="n">
-        <v>623.3333333333</v>
+        <v>12.3333333333</v>
       </c>
       <c r="O35" t="n">
-        <v>606.6666666667</v>
+        <v>11.6666666667</v>
       </c>
       <c r="P35" t="n">
-        <v>590</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -48652,46 +48652,46 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D36" t="n">
-        <v>7.8</v>
+        <v>79.8</v>
       </c>
       <c r="E36" t="n">
-        <v>8.6</v>
+        <v>75.6</v>
       </c>
       <c r="F36" t="n">
-        <v>9.4</v>
+        <v>71.4</v>
       </c>
       <c r="G36" t="n">
-        <v>10.2</v>
+        <v>67.2</v>
       </c>
       <c r="H36" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="I36" t="n">
-        <v>11.4</v>
+        <v>62</v>
       </c>
       <c r="J36" t="n">
-        <v>11.8</v>
+        <v>61</v>
       </c>
       <c r="K36" t="n">
-        <v>12.2</v>
+        <v>60</v>
       </c>
       <c r="L36" t="n">
-        <v>12.6</v>
+        <v>59</v>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="N36" t="n">
-        <v>12.3333333333</v>
+        <v>56.3333333333</v>
       </c>
       <c r="O36" t="n">
-        <v>11.6666666667</v>
+        <v>54.6666666667</v>
       </c>
       <c r="P36" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
@@ -48702,46 +48702,46 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>84</v>
+        <v>1200</v>
       </c>
       <c r="D37" t="n">
-        <v>79.8</v>
+        <v>1180</v>
       </c>
       <c r="E37" t="n">
-        <v>75.6</v>
+        <v>1160</v>
       </c>
       <c r="F37" t="n">
-        <v>71.4</v>
+        <v>1140</v>
       </c>
       <c r="G37" t="n">
-        <v>67.2</v>
+        <v>1120</v>
       </c>
       <c r="H37" t="n">
-        <v>63</v>
+        <v>1100</v>
       </c>
       <c r="I37" t="n">
-        <v>62</v>
+        <v>1072</v>
       </c>
       <c r="J37" t="n">
-        <v>61</v>
+        <v>1044</v>
       </c>
       <c r="K37" t="n">
-        <v>60</v>
+        <v>1016</v>
       </c>
       <c r="L37" t="n">
-        <v>59</v>
+        <v>988</v>
       </c>
       <c r="M37" t="n">
-        <v>58</v>
+        <v>960</v>
       </c>
       <c r="N37" t="n">
-        <v>56.3333333333</v>
+        <v>933.3333333333</v>
       </c>
       <c r="O37" t="n">
-        <v>54.6666666667</v>
+        <v>906.6666666667</v>
       </c>
       <c r="P37" t="n">
-        <v>53</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38">
@@ -48751,48 +48751,20 @@
       <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1160</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1140</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1100</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1072</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1044</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1016</v>
-      </c>
-      <c r="L38" t="n">
-        <v>988</v>
-      </c>
-      <c r="M38" t="n">
-        <v>960</v>
-      </c>
-      <c r="N38" t="n">
-        <v>933.3333333333</v>
-      </c>
-      <c r="O38" t="n">
-        <v>906.6666666667</v>
-      </c>
-      <c r="P38" t="n">
-        <v>880</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -48801,20 +48773,48 @@
       <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1260</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1160</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1140</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1120</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1060</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1020</v>
+      </c>
+      <c r="P39" t="n">
+        <v>980</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -48824,46 +48824,46 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>1500</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>1440</v>
+        <v>28.4</v>
       </c>
       <c r="E40" t="n">
-        <v>1380</v>
+        <v>27.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1320</v>
+        <v>27.2</v>
       </c>
       <c r="G40" t="n">
-        <v>1260</v>
+        <v>26.6</v>
       </c>
       <c r="H40" t="n">
-        <v>1200</v>
+        <v>26</v>
       </c>
       <c r="I40" t="n">
-        <v>1180</v>
+        <v>25.6</v>
       </c>
       <c r="J40" t="n">
-        <v>1160</v>
+        <v>25.2</v>
       </c>
       <c r="K40" t="n">
-        <v>1140</v>
+        <v>24.8</v>
       </c>
       <c r="L40" t="n">
-        <v>1120</v>
+        <v>24.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1100</v>
+        <v>24</v>
       </c>
       <c r="N40" t="n">
-        <v>1060</v>
+        <v>23.3333333333</v>
       </c>
       <c r="O40" t="n">
-        <v>1020</v>
+        <v>22.6666666667</v>
       </c>
       <c r="P40" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -48874,46 +48874,46 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D41" t="n">
-        <v>28.4</v>
+        <v>60.4</v>
       </c>
       <c r="E41" t="n">
-        <v>27.8</v>
+        <v>57.8</v>
       </c>
       <c r="F41" t="n">
-        <v>27.2</v>
+        <v>55.2</v>
       </c>
       <c r="G41" t="n">
-        <v>26.6</v>
+        <v>52.6</v>
       </c>
       <c r="H41" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I41" t="n">
-        <v>25.6</v>
+        <v>47.2</v>
       </c>
       <c r="J41" t="n">
-        <v>25.2</v>
+        <v>44.4</v>
       </c>
       <c r="K41" t="n">
-        <v>24.8</v>
+        <v>41.6</v>
       </c>
       <c r="L41" t="n">
-        <v>24.4</v>
+        <v>38.8</v>
       </c>
       <c r="M41" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N41" t="n">
-        <v>23.3333333333</v>
+        <v>34.6666666667</v>
       </c>
       <c r="O41" t="n">
-        <v>22.6666666667</v>
+        <v>33.3333333333</v>
       </c>
       <c r="P41" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -48924,46 +48924,46 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D42" t="n">
-        <v>60.4</v>
+        <v>123.4</v>
       </c>
       <c r="E42" t="n">
-        <v>57.8</v>
+        <v>116.8</v>
       </c>
       <c r="F42" t="n">
-        <v>55.2</v>
+        <v>110.2</v>
       </c>
       <c r="G42" t="n">
-        <v>52.6</v>
+        <v>103.6</v>
       </c>
       <c r="H42" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="I42" t="n">
-        <v>47.2</v>
+        <v>94.6</v>
       </c>
       <c r="J42" t="n">
-        <v>44.4</v>
+        <v>92.2</v>
       </c>
       <c r="K42" t="n">
-        <v>41.6</v>
+        <v>89.8</v>
       </c>
       <c r="L42" t="n">
-        <v>38.8</v>
+        <v>87.4</v>
       </c>
       <c r="M42" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="N42" t="n">
-        <v>34.6666666667</v>
+        <v>84.3333333333</v>
       </c>
       <c r="O42" t="n">
-        <v>33.3333333333</v>
+        <v>83.6666666667</v>
       </c>
       <c r="P42" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -48974,46 +48974,46 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="D43" t="n">
-        <v>123.4</v>
+        <v>470</v>
       </c>
       <c r="E43" t="n">
-        <v>116.8</v>
+        <v>460</v>
       </c>
       <c r="F43" t="n">
-        <v>110.2</v>
+        <v>450</v>
       </c>
       <c r="G43" t="n">
-        <v>103.6</v>
+        <v>440</v>
       </c>
       <c r="H43" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="I43" t="n">
-        <v>94.6</v>
+        <v>420</v>
       </c>
       <c r="J43" t="n">
-        <v>92.2</v>
+        <v>410</v>
       </c>
       <c r="K43" t="n">
-        <v>89.8</v>
+        <v>400</v>
       </c>
       <c r="L43" t="n">
-        <v>87.4</v>
+        <v>390</v>
       </c>
       <c r="M43" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N43" t="n">
-        <v>84.3333333333</v>
+        <v>370</v>
       </c>
       <c r="O43" t="n">
-        <v>83.6666666667</v>
+        <v>360</v>
       </c>
       <c r="P43" t="n">
-        <v>83</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
@@ -49024,46 +49024,46 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="D44" t="n">
-        <v>470</v>
+        <v>594</v>
       </c>
       <c r="E44" t="n">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="F44" t="n">
+        <v>562</v>
+      </c>
+      <c r="G44" t="n">
+        <v>546</v>
+      </c>
+      <c r="H44" t="n">
+        <v>530</v>
+      </c>
+      <c r="I44" t="n">
+        <v>514</v>
+      </c>
+      <c r="J44" t="n">
+        <v>498</v>
+      </c>
+      <c r="K44" t="n">
+        <v>482</v>
+      </c>
+      <c r="L44" t="n">
+        <v>466</v>
+      </c>
+      <c r="M44" t="n">
         <v>450</v>
       </c>
-      <c r="G44" t="n">
-        <v>440</v>
-      </c>
-      <c r="H44" t="n">
-        <v>430</v>
-      </c>
-      <c r="I44" t="n">
-        <v>420</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="N44" t="n">
+        <v>436.6666666667</v>
+      </c>
+      <c r="O44" t="n">
+        <v>423.3333333333</v>
+      </c>
+      <c r="P44" t="n">
         <v>410</v>
-      </c>
-      <c r="K44" t="n">
-        <v>400</v>
-      </c>
-      <c r="L44" t="n">
-        <v>390</v>
-      </c>
-      <c r="M44" t="n">
-        <v>380</v>
-      </c>
-      <c r="N44" t="n">
-        <v>370</v>
-      </c>
-      <c r="O44" t="n">
-        <v>360</v>
-      </c>
-      <c r="P44" t="n">
-        <v>350</v>
       </c>
     </row>
     <row r="45">
@@ -49074,46 +49074,46 @@
         <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>594</v>
+        <v>44.4</v>
       </c>
       <c r="E45" t="n">
-        <v>578</v>
+        <v>44.8</v>
       </c>
       <c r="F45" t="n">
-        <v>562</v>
+        <v>45.2</v>
       </c>
       <c r="G45" t="n">
-        <v>546</v>
+        <v>45.6</v>
       </c>
       <c r="H45" t="n">
-        <v>530</v>
+        <v>46</v>
       </c>
       <c r="I45" t="n">
-        <v>514</v>
+        <v>43.4</v>
       </c>
       <c r="J45" t="n">
-        <v>498</v>
+        <v>40.8</v>
       </c>
       <c r="K45" t="n">
-        <v>482</v>
+        <v>38.2</v>
       </c>
       <c r="L45" t="n">
-        <v>466</v>
+        <v>35.6</v>
       </c>
       <c r="M45" t="n">
-        <v>450</v>
+        <v>33</v>
       </c>
       <c r="N45" t="n">
-        <v>436.6666666667</v>
+        <v>34.6666666667</v>
       </c>
       <c r="O45" t="n">
-        <v>423.3333333333</v>
+        <v>36.3333333333</v>
       </c>
       <c r="P45" t="n">
-        <v>410</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
@@ -49124,46 +49124,46 @@
         <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>44</v>
+        <v>670</v>
       </c>
       <c r="D46" t="n">
-        <v>44.4</v>
+        <v>686</v>
       </c>
       <c r="E46" t="n">
-        <v>44.8</v>
+        <v>702</v>
       </c>
       <c r="F46" t="n">
-        <v>45.2</v>
+        <v>718</v>
       </c>
       <c r="G46" t="n">
-        <v>45.6</v>
+        <v>734</v>
       </c>
       <c r="H46" t="n">
-        <v>46</v>
+        <v>750</v>
       </c>
       <c r="I46" t="n">
-        <v>43.4</v>
+        <v>750</v>
       </c>
       <c r="J46" t="n">
-        <v>40.8</v>
+        <v>750</v>
       </c>
       <c r="K46" t="n">
-        <v>38.2</v>
+        <v>750</v>
       </c>
       <c r="L46" t="n">
-        <v>35.6</v>
+        <v>750</v>
       </c>
       <c r="M46" t="n">
-        <v>33</v>
+        <v>750</v>
       </c>
       <c r="N46" t="n">
-        <v>34.6666666667</v>
+        <v>740</v>
       </c>
       <c r="O46" t="n">
-        <v>36.3333333333</v>
+        <v>730</v>
       </c>
       <c r="P46" t="n">
-        <v>38</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47">
@@ -56308,46 +56308,46 @@
         <v>406</v>
       </c>
       <c r="C202" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>33</v>
+        <v>11.2</v>
       </c>
       <c r="E202" t="n">
-        <v>31</v>
+        <v>11.4</v>
       </c>
       <c r="F202" t="n">
-        <v>29</v>
+        <v>11.6</v>
       </c>
       <c r="G202" t="n">
-        <v>27</v>
+        <v>11.8</v>
       </c>
       <c r="H202" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I202" t="n">
-        <v>25.8</v>
+        <v>11.8</v>
       </c>
       <c r="J202" t="n">
-        <v>26.6</v>
+        <v>11.6</v>
       </c>
       <c r="K202" t="n">
-        <v>27.4</v>
+        <v>11.4</v>
       </c>
       <c r="L202" t="n">
-        <v>28.2</v>
+        <v>11.2</v>
       </c>
       <c r="M202" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N202" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="O202" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P202" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
@@ -56358,46 +56358,46 @@
         <v>408</v>
       </c>
       <c r="C203" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
-        <v>11.2</v>
+        <v>33</v>
       </c>
       <c r="E203" t="n">
-        <v>11.4</v>
+        <v>31</v>
       </c>
       <c r="F203" t="n">
-        <v>11.6</v>
+        <v>29</v>
       </c>
       <c r="G203" t="n">
-        <v>11.8</v>
+        <v>27</v>
       </c>
       <c r="H203" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I203" t="n">
-        <v>11.8</v>
+        <v>25.8</v>
       </c>
       <c r="J203" t="n">
-        <v>11.6</v>
+        <v>26.6</v>
       </c>
       <c r="K203" t="n">
-        <v>11.4</v>
+        <v>27.4</v>
       </c>
       <c r="L203" t="n">
-        <v>11.2</v>
+        <v>28.2</v>
       </c>
       <c r="M203" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N203" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O203" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="P203" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204">
@@ -57834,26 +57834,26 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v> 670</v>
+        <v> 540</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="n">
-        <v> 750</v>
+        <v> 320</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v> 750</v>
+        <v> 200</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v> 720</v>
+        <v> 170</v>
       </c>
     </row>
     <row r="34">
@@ -57864,26 +57864,26 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v> 540</v>
+        <v> 740</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="n">
-        <v> 320</v>
+        <v> 690</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v> 200</v>
+        <v> 640</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v> 170</v>
+        <v> 590</v>
       </c>
     </row>
     <row r="35">
@@ -57894,26 +57894,26 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v> 740</v>
+        <v>   7</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="n">
-        <v> 690</v>
+        <v>  11</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v> 640</v>
+        <v>  13</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v> 590</v>
+        <v>  11</v>
       </c>
     </row>
     <row r="36">
@@ -57924,26 +57924,26 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>   7</v>
+        <v>  84</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36" t="n">
-        <v>  11</v>
+        <v>  63</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>  13</v>
+        <v>  58</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="n">
-        <v>  11</v>
+        <v>  53</v>
       </c>
     </row>
     <row r="37">
@@ -57954,26 +57954,26 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>  84</v>
+        <v>1200</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37" t="n">
-        <v>  63</v>
+        <v>1100</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>  58</v>
+        <v> 960</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>  53</v>
+        <v> 880</v>
       </c>
     </row>
     <row r="38">
@@ -57983,28 +57983,20 @@
       <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="n">
-        <v>1200</v>
-      </c>
+      <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" t="n">
-        <v>1100</v>
-      </c>
+      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38" t="n">
-        <v> 960</v>
-      </c>
+      <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
-      <c r="P38" t="n">
-        <v> 880</v>
-      </c>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -58013,20 +58005,28 @@
       <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="n">
+        <v>1500</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39"/>
+      <c r="H39" t="n">
+        <v>1200</v>
+      </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39"/>
+      <c r="M39" t="n">
+        <v>1100</v>
+      </c>
       <c r="N39"/>
       <c r="O39"/>
-      <c r="P39"/>
+      <c r="P39" t="n">
+        <v> 980</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -58036,26 +58036,26 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>1500</v>
+        <v>  29</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" t="n">
-        <v>1200</v>
+        <v>  26</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="n">
-        <v>1100</v>
+        <v>  24</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40" t="n">
-        <v> 980</v>
+        <v>  22</v>
       </c>
     </row>
     <row r="41">
@@ -58066,26 +58066,26 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>  29</v>
+        <v>  63</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="n">
-        <v>  26</v>
+        <v>  50</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>  24</v>
+        <v>  36</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41" t="n">
-        <v>  22</v>
+        <v>  32</v>
       </c>
     </row>
     <row r="42">
@@ -58096,26 +58096,26 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>  63</v>
+        <v> 130</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" t="n">
-        <v>  50</v>
+        <v>  97</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>  36</v>
+        <v>  85</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>  32</v>
+        <v>  83</v>
       </c>
     </row>
     <row r="43">
@@ -58126,26 +58126,26 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v> 130</v>
+        <v> 480</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" t="n">
-        <v>  97</v>
+        <v> 430</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>  85</v>
+        <v> 380</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>  83</v>
+        <v> 350</v>
       </c>
     </row>
     <row r="44">
@@ -58156,26 +58156,26 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v> 480</v>
+        <v> 610</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="n">
-        <v> 430</v>
+        <v> 530</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="n">
-        <v> 380</v>
+        <v> 450</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44" t="n">
-        <v> 350</v>
+        <v> 410</v>
       </c>
     </row>
     <row r="45">
@@ -58186,26 +58186,26 @@
         <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v> 610</v>
+        <v>  44</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="n">
-        <v> 530</v>
+        <v>  46</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v> 450</v>
+        <v>  33</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v> 410</v>
+        <v>  38</v>
       </c>
     </row>
     <row r="46">
@@ -58216,26 +58216,26 @@
         <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>  44</v>
+        <v> 670</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" t="n">
-        <v>  46</v>
+        <v> 750</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="n">
-        <v>  33</v>
+        <v> 750</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="n">
-        <v>  38</v>
+        <v> 720</v>
       </c>
     </row>
     <row r="47">
@@ -62720,26 +62720,26 @@
         <v>406</v>
       </c>
       <c r="C202" t="n">
-        <v>  35</v>
+        <v>  11</v>
       </c>
       <c r="D202"/>
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202"/>
       <c r="H202" t="n">
-        <v>  25</v>
+        <v>  12</v>
       </c>
       <c r="I202"/>
       <c r="J202"/>
       <c r="K202"/>
       <c r="L202"/>
       <c r="M202" t="n">
-        <v>  29</v>
+        <v>  11</v>
       </c>
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202" t="n">
-        <v>  23</v>
+        <v>   8</v>
       </c>
     </row>
     <row r="203">
@@ -62750,26 +62750,26 @@
         <v>408</v>
       </c>
       <c r="C203" t="n">
-        <v>  11</v>
+        <v>  35</v>
       </c>
       <c r="D203"/>
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203"/>
       <c r="H203" t="n">
-        <v>  12</v>
+        <v>  25</v>
       </c>
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203" t="n">
-        <v>  11</v>
+        <v>  29</v>
       </c>
       <c r="N203"/>
       <c r="O203"/>
       <c r="P203" t="n">
-        <v>   8</v>
+        <v>  23</v>
       </c>
     </row>
     <row r="204">
